--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\certificados-la-granja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\registrolagranja\Documents\certificados-la-granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05E0A5-0399-48B0-85B7-7B206C58D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D806A1-F93D-4B72-9910-60BF3EC1F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>TIPO DE DOCUMENTO</t>
   </si>
@@ -28,6 +28,9 @@
     <t>NUMERO DE DOCUMENTO</t>
   </si>
   <si>
+    <t>NOMBRES  Y APELLIDOS</t>
+  </si>
+  <si>
     <t>DIA</t>
   </si>
   <si>
@@ -37,23 +40,65 @@
     <t>AÑO</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>YAIR ALEXANDER CARDENAS GUZMAN</t>
+  </si>
+  <si>
     <t>MAYO</t>
   </si>
   <si>
-    <t>LANAP</t>
+    <t>MARLON MOSQUERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMAN LOPEZ </t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>CARMEN ROSA GARCIA BRAVO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>JAIME LOPEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>SARA DIAZ RIVERA</t>
+  </si>
+  <si>
+    <t>MARIA ENGRACIA MARTIN BUENO</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>AYDEE DE JESUS GIRALDO MENDEZ</t>
+  </si>
+  <si>
+    <t>CARMEN BASTO MORALES</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>ANA DE JESUS SUAREZ NUÑEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +110,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,16 +151,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -448,19 +504,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1070593778</v>
-      </c>
-      <c r="C2">
+        <v>110845316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>2024</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,19 +524,179 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1108453116</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+        <v>1070593778</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>2024</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5813300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38237961</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6000297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38222588</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41587804</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38215199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>65496347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>28953763</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1973</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\certificados-la-granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05E0A5-0399-48B0-85B7-7B206C58D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BEDAC-61B2-4A04-B779-EBE3BA2B1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1875" windowWidth="16245" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\certificados-la-granja\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BEDAC-61B2-4A04-B779-EBE3BA2B1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1875" windowWidth="16245" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>TIPO DE DOCUMENTO</t>
-  </si>
-  <si>
-    <t>NUMERO DE DOCUMENTO</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>MAYO</t>
-  </si>
-  <si>
-    <t>LANAP</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -408,79 +420,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1070593778</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2024</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1108453116</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIPO DE DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NUMERO DE DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRES Y APELLIDOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AÑO</t>
+        </is>
       </c>
     </row>
   </sheetData>
